--- a/Definition/Requirements/SIQ.xlsx
+++ b/Definition/Requirements/SIQ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI Study\QA Project\TravelAdvisor\Definition\Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139C43C0-C396-4AAF-80F1-9DEB65EE6427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13AA67D-03CA-45A4-9858-7DFABA0D6709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18036" yWindow="1968" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,6 @@
     <t>Saad</t>
   </si>
   <si>
-    <t>SIQ_01</t>
-  </si>
-  <si>
     <t>Booking module</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>Aya</t>
   </si>
   <si>
-    <t>SIQ_02</t>
-  </si>
-  <si>
     <t>Registration user module</t>
   </si>
   <si>
@@ -77,9 +71,6 @@
   </si>
   <si>
     <t>2 kind of users only (admin,customer) no guest user</t>
-  </si>
-  <si>
-    <t>SIQ_03</t>
   </si>
   <si>
     <t>Tours Module</t>
@@ -91,16 +82,10 @@
     <t>budget, destination</t>
   </si>
   <si>
-    <t>SIQ_04</t>
-  </si>
-  <si>
     <t>What are the data needed for user registeration form?</t>
   </si>
   <si>
     <t>first name , last name, password, email, age only</t>
-  </si>
-  <si>
-    <t>SIQ_05</t>
   </si>
   <si>
     <t>Registration admin module</t>
@@ -112,16 +97,10 @@
     <t>constant credentials for admin to log</t>
   </si>
   <si>
-    <t>SIQ_06</t>
-  </si>
-  <si>
     <t>Admin Authorization module</t>
   </si>
   <si>
     <t>What are the admin features ?</t>
-  </si>
-  <si>
-    <t>SIQ_07</t>
   </si>
   <si>
     <t>Who can rate a trip?</t>
@@ -131,9 +110,6 @@
   </si>
   <si>
     <t>Ashry</t>
-  </si>
-  <si>
-    <t>SIQ_08</t>
   </si>
   <si>
     <t>Will the booking be on external or internal platform ?</t>
@@ -157,9 +133,6 @@
     <t>Medhat</t>
   </si>
   <si>
-    <t>SIQ_10</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -169,16 +142,10 @@
     <t>no payment functions in te system</t>
   </si>
   <si>
-    <t>SIQ_11</t>
-  </si>
-  <si>
     <t>How user will know the booking is confirmed ?</t>
   </si>
   <si>
     <t xml:space="preserve">a conifrmation mail will be sent ,and message stating that booking was successfully done </t>
-  </si>
-  <si>
-    <t>SIQ_12</t>
   </si>
   <si>
     <t>Rating Module</t>
@@ -191,9 +158,6 @@
   </si>
   <si>
     <t>Nada</t>
-  </si>
-  <si>
-    <t>SIQ_13</t>
   </si>
   <si>
     <t>what user can send his feedback ?</t>
@@ -214,16 +178,10 @@
     <t>web based (Browesr){ie, firefox, chrome}</t>
   </si>
   <si>
-    <t>SIQ_15</t>
-  </si>
-  <si>
     <t>is there is any requirments regarding user unquie  id ?</t>
   </si>
   <si>
     <t>auto generated</t>
-  </si>
-  <si>
-    <t>SIQ_16</t>
   </si>
   <si>
     <t>what is the system workflow?</t>
@@ -233,9 +191,6 @@
   </si>
   <si>
     <t xml:space="preserve">Nada </t>
-  </si>
-  <si>
-    <t>SIQ_17</t>
   </si>
   <si>
     <t>Login Module</t>
@@ -361,6 +316,51 @@
     <t>1- Adding new tour
 2- Add user
 3- Add admin</t>
+  </si>
+  <si>
+    <t>SIQ_01_Tour</t>
+  </si>
+  <si>
+    <t>SIQ_04_Signup</t>
+  </si>
+  <si>
+    <t>SIQ_15_Signup</t>
+  </si>
+  <si>
+    <t>SIQ_17_User_Login</t>
+  </si>
+  <si>
+    <t>SIQ_16_Home</t>
+  </si>
+  <si>
+    <t>SIQ_03_Tour</t>
+  </si>
+  <si>
+    <t>SIQ_07_Tour</t>
+  </si>
+  <si>
+    <t>SIQ_08_Tour</t>
+  </si>
+  <si>
+    <t>SIQ_11_Tour</t>
+  </si>
+  <si>
+    <t>SIQ_12_Tour</t>
+  </si>
+  <si>
+    <t>SIQ_13_Tour</t>
+  </si>
+  <si>
+    <t>SIQ_05_Admin_Login</t>
+  </si>
+  <si>
+    <t>SIQ_02_Signup AND SIQ_02_Admin_Add</t>
+  </si>
+  <si>
+    <t>SIQ_06_Add_User</t>
+  </si>
+  <si>
+    <t>SIQ_10_Tour</t>
   </si>
 </sst>
 </file>
@@ -543,12 +543,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -557,14 +563,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -787,13 +787,13 @@
   <dimension ref="A1:AB998"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="34.109375" customWidth="1"/>
+    <col min="3" max="3" width="35.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.33203125" customWidth="1"/>
     <col min="5" max="5" width="58.6640625" customWidth="1"/>
     <col min="6" max="6" width="86.33203125" customWidth="1"/>
@@ -859,21 +859,21 @@
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="7" t="b">
         <v>0</v>
@@ -903,23 +903,23 @@
         <v>44660</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="7" t="b">
         <v>0</v>
@@ -951,21 +951,21 @@
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>19</v>
+      <c r="C4" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="7" t="b">
         <v>0</v>
@@ -995,23 +995,23 @@
         <v>44660</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>23</v>
+      <c r="C5" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" s="7" t="b">
         <v>0</v>
@@ -1044,20 +1044,20 @@
         <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" s="7" t="b">
         <v>0</v>
@@ -1087,23 +1087,23 @@
         <v>44660</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
-      <c r="F7" s="22" t="s">
-        <v>112</v>
+      <c r="F7" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" s="7" t="b">
         <v>0</v>
@@ -1135,21 +1135,21 @@
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>33</v>
+      <c r="C8" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="7" t="b">
         <v>0</v>
@@ -1179,23 +1179,23 @@
         <v>44660</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>37</v>
+      <c r="C9" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="7" t="b">
         <v>0</v>
@@ -1225,23 +1225,23 @@
         <v>44660</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7" t="b">
         <v>0</v>
@@ -1271,23 +1271,23 @@
         <v>44660</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="7" t="b">
         <v>0</v>
@@ -1317,23 +1317,23 @@
         <v>44660</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>49</v>
+      <c r="C12" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" s="7" t="b">
         <v>0</v>
@@ -1363,23 +1363,23 @@
         <v>44660</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" s="7" t="b">
         <v>0</v>
@@ -1409,23 +1409,23 @@
         <v>44660</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" s="7" t="b">
         <v>0</v>
@@ -1455,23 +1455,23 @@
         <v>44660</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I15" s="7" t="b">
         <v>0</v>
@@ -1501,23 +1501,23 @@
         <v>44660</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>64</v>
+      <c r="C16" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I16" s="7" t="b">
         <v>0</v>
@@ -1547,23 +1547,23 @@
         <v>44660</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="7" t="b">
         <v>0</v>
@@ -1593,23 +1593,23 @@
         <v>44662</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18" s="7" t="b">
         <v>0</v>
@@ -1639,23 +1639,23 @@
         <v>44662</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" s="7" t="b">
         <v>0</v>
@@ -1685,23 +1685,23 @@
         <v>44662</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I20" s="7" t="b">
         <v>0</v>
@@ -1751,13 +1751,13 @@
       <c r="AB21" s="7"/>
     </row>
     <row r="22" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>81</v>
+      <c r="A22" s="20" t="s">
+        <v>66</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="15"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -1783,15 +1783,15 @@
       <c r="AB22" s="7"/>
     </row>
     <row r="23" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>36</v>
+      <c r="A23" s="18" t="s">
+        <v>29</v>
       </c>
-      <c r="B23" s="15"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="17" t="s">
-        <v>82</v>
+      <c r="D23" s="19" t="s">
+        <v>67</v>
       </c>
-      <c r="E23" s="15"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -1817,15 +1817,15 @@
       <c r="AB23" s="7"/>
     </row>
     <row r="24" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>36</v>
+      <c r="A24" s="18" t="s">
+        <v>29</v>
       </c>
-      <c r="B24" s="15"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="17" t="s">
-        <v>83</v>
+      <c r="D24" s="19" t="s">
+        <v>68</v>
       </c>
-      <c r="E24" s="15"/>
+      <c r="E24" s="16"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -1851,15 +1851,15 @@
       <c r="AB24" s="7"/>
     </row>
     <row r="25" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>36</v>
+      <c r="A25" s="18" t="s">
+        <v>29</v>
       </c>
-      <c r="B25" s="15"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="17" t="s">
-        <v>84</v>
+      <c r="D25" s="19" t="s">
+        <v>69</v>
       </c>
-      <c r="E25" s="15"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -1885,15 +1885,15 @@
       <c r="AB25" s="7"/>
     </row>
     <row r="26" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>36</v>
+      <c r="A26" s="18" t="s">
+        <v>29</v>
       </c>
-      <c r="B26" s="15"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="17" t="s">
-        <v>85</v>
+      <c r="D26" s="19" t="s">
+        <v>70</v>
       </c>
-      <c r="E26" s="15"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -1919,15 +1919,15 @@
       <c r="AB26" s="7"/>
     </row>
     <row r="27" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>36</v>
+      <c r="A27" s="18" t="s">
+        <v>29</v>
       </c>
-      <c r="B27" s="15"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="17" t="s">
-        <v>86</v>
+      <c r="D27" s="19" t="s">
+        <v>71</v>
       </c>
-      <c r="E27" s="15"/>
+      <c r="E27" s="16"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -1953,15 +1953,15 @@
       <c r="AB27" s="7"/>
     </row>
     <row r="28" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>14</v>
+      <c r="A28" s="18" t="s">
+        <v>13</v>
       </c>
-      <c r="B28" s="15"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="17" t="s">
-        <v>87</v>
+      <c r="D28" s="19" t="s">
+        <v>72</v>
       </c>
-      <c r="E28" s="15"/>
+      <c r="E28" s="16"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -1987,13 +1987,13 @@
       <c r="AB28" s="7"/>
     </row>
     <row r="29" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>88</v>
+      <c r="A29" s="20" t="s">
+        <v>73</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="15"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -2019,15 +2019,15 @@
       <c r="AB29" s="7"/>
     </row>
     <row r="30" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>89</v>
+      <c r="A30" s="18" t="s">
+        <v>74</v>
       </c>
-      <c r="B30" s="15"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="16" t="s">
-        <v>90</v>
+      <c r="D30" s="15" t="s">
+        <v>75</v>
       </c>
-      <c r="E30" s="15"/>
+      <c r="E30" s="16"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -2053,15 +2053,15 @@
       <c r="AB30" s="11"/>
     </row>
     <row r="31" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>91</v>
+      <c r="A31" s="18" t="s">
+        <v>76</v>
       </c>
-      <c r="B31" s="15"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="16" t="s">
-        <v>92</v>
+      <c r="D31" s="15" t="s">
+        <v>77</v>
       </c>
-      <c r="E31" s="15"/>
+      <c r="E31" s="16"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -2087,15 +2087,15 @@
       <c r="AB31" s="11"/>
     </row>
     <row r="32" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>93</v>
+      <c r="A32" s="18" t="s">
+        <v>78</v>
       </c>
-      <c r="B32" s="15"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="16" t="s">
-        <v>94</v>
+      <c r="D32" s="15" t="s">
+        <v>79</v>
       </c>
-      <c r="E32" s="15"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
@@ -2121,15 +2121,15 @@
       <c r="AB32" s="11"/>
     </row>
     <row r="33" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>95</v>
+      <c r="A33" s="18" t="s">
+        <v>80</v>
       </c>
-      <c r="B33" s="15"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="16" t="s">
-        <v>96</v>
+      <c r="D33" s="15" t="s">
+        <v>81</v>
       </c>
-      <c r="E33" s="15"/>
+      <c r="E33" s="16"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -2155,15 +2155,15 @@
       <c r="AB33" s="11"/>
     </row>
     <row r="34" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>97</v>
+      <c r="A34" s="18" t="s">
+        <v>82</v>
       </c>
-      <c r="B34" s="15"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="16" t="s">
-        <v>98</v>
+      <c r="D34" s="15" t="s">
+        <v>83</v>
       </c>
-      <c r="E34" s="15"/>
+      <c r="E34" s="16"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
@@ -2189,15 +2189,15 @@
       <c r="AB34" s="11"/>
     </row>
     <row r="35" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>99</v>
+      <c r="A35" s="18" t="s">
+        <v>84</v>
       </c>
-      <c r="B35" s="15"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="16" t="s">
-        <v>100</v>
+      <c r="D35" s="15" t="s">
+        <v>85</v>
       </c>
-      <c r="E35" s="15"/>
+      <c r="E35" s="16"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -2223,15 +2223,15 @@
       <c r="AB35" s="11"/>
     </row>
     <row r="36" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
-        <v>101</v>
+      <c r="A36" s="18" t="s">
+        <v>86</v>
       </c>
-      <c r="B36" s="15"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="16" t="s">
-        <v>102</v>
+      <c r="D36" s="15" t="s">
+        <v>87</v>
       </c>
-      <c r="E36" s="15"/>
+      <c r="E36" s="16"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
@@ -2257,33 +2257,33 @@
       <c r="AB36" s="11"/>
     </row>
     <row r="37" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
-        <v>103</v>
+      <c r="A37" s="18" t="s">
+        <v>88</v>
       </c>
-      <c r="B37" s="15"/>
+      <c r="B37" s="16"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="16" t="s">
-        <v>104</v>
+      <c r="D37" s="15" t="s">
+        <v>89</v>
       </c>
-      <c r="E37" s="15"/>
+      <c r="E37" s="16"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="15"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="16"/>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
       <c r="R37" s="11"/>
       <c r="S37" s="11"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="15"/>
-      <c r="V37" s="16"/>
-      <c r="W37" s="15"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="15"/>
+      <c r="W37" s="16"/>
       <c r="X37" s="11"/>
       <c r="Y37" s="11"/>
       <c r="Z37" s="11"/>
@@ -2291,33 +2291,33 @@
       <c r="AB37" s="11"/>
     </row>
     <row r="38" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
-        <v>105</v>
+      <c r="A38" s="18" t="s">
+        <v>90</v>
       </c>
-      <c r="B38" s="15"/>
+      <c r="B38" s="16"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="16" t="s">
-        <v>106</v>
+      <c r="D38" s="15" t="s">
+        <v>91</v>
       </c>
-      <c r="E38" s="15"/>
+      <c r="E38" s="16"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="15"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="16"/>
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
       <c r="R38" s="11"/>
       <c r="S38" s="11"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="15"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="15"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="16"/>
       <c r="X38" s="11"/>
       <c r="Y38" s="11"/>
       <c r="Z38" s="11"/>
@@ -2325,33 +2325,33 @@
       <c r="AB38" s="11"/>
     </row>
     <row r="39" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
-        <v>107</v>
+      <c r="A39" s="18" t="s">
+        <v>92</v>
       </c>
-      <c r="B39" s="15"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="12"/>
-      <c r="D39" s="21" t="s">
-        <v>108</v>
+      <c r="D39" s="22" t="s">
+        <v>93</v>
       </c>
-      <c r="E39" s="15"/>
+      <c r="E39" s="16"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="15"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="16"/>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
       <c r="R39" s="11"/>
       <c r="S39" s="11"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="15"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="15"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="16"/>
       <c r="X39" s="11"/>
       <c r="Y39" s="11"/>
       <c r="Z39" s="11"/>
@@ -2359,33 +2359,33 @@
       <c r="AB39" s="11"/>
     </row>
     <row r="40" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
-        <v>109</v>
+      <c r="A40" s="18" t="s">
+        <v>94</v>
       </c>
-      <c r="B40" s="15"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="16" t="s">
-        <v>110</v>
+      <c r="D40" s="15" t="s">
+        <v>95</v>
       </c>
-      <c r="E40" s="15"/>
+      <c r="E40" s="16"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="15"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="16"/>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
       <c r="R40" s="11"/>
       <c r="S40" s="11"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="15"/>
-      <c r="V40" s="16"/>
-      <c r="W40" s="15"/>
+      <c r="T40" s="18"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="16"/>
       <c r="X40" s="11"/>
       <c r="Y40" s="11"/>
       <c r="Z40" s="11"/>
@@ -2393,29 +2393,29 @@
       <c r="AB40" s="11"/>
     </row>
     <row r="41" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="15"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="16"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="15"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="16"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
       <c r="R41" s="11"/>
       <c r="S41" s="11"/>
-      <c r="T41" s="14"/>
-      <c r="U41" s="15"/>
-      <c r="V41" s="16"/>
-      <c r="W41" s="15"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="15"/>
+      <c r="W41" s="16"/>
       <c r="X41" s="11"/>
       <c r="Y41" s="11"/>
       <c r="Z41" s="11"/>
@@ -2423,29 +2423,29 @@
       <c r="AB41" s="11"/>
     </row>
     <row r="42" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="15"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="16"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="16"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="15"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="16"/>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
       <c r="R42" s="11"/>
       <c r="S42" s="11"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="15"/>
-      <c r="V42" s="16"/>
-      <c r="W42" s="15"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="16"/>
       <c r="X42" s="11"/>
       <c r="Y42" s="11"/>
       <c r="Z42" s="11"/>
@@ -31128,41 +31128,17 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D39:E39"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="D26:E26"/>
@@ -31174,24 +31150,48 @@
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
     <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D39:E39"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="D32:E32"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="T42:U42"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D39" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
